--- a/templates/surveys_list.xlsx
+++ b/templates/surveys_list.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="521">
   <si>
     <t xml:space="preserve">t_survey</t>
   </si>
@@ -101,6 +101,12 @@
     <t xml:space="preserve">FR</t>
   </si>
   <si>
+    <t xml:space="preserve">EQLS1GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB</t>
+  </si>
+  <si>
     <t xml:space="preserve">EQLS1GR</t>
   </si>
   <si>
@@ -197,12 +203,6 @@
     <t xml:space="preserve">TR</t>
   </si>
   <si>
-    <t xml:space="preserve">EQLS1UK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UK</t>
-  </si>
-  <si>
     <t xml:space="preserve">EQLS2AT</t>
   </si>
   <si>
@@ -236,6 +236,9 @@
     <t xml:space="preserve">EQLS2FR</t>
   </si>
   <si>
+    <t xml:space="preserve">EQLS2GB</t>
+  </si>
+  <si>
     <t xml:space="preserve">EQLS2GR</t>
   </si>
   <si>
@@ -302,9 +305,6 @@
     <t xml:space="preserve">EQLS2TR</t>
   </si>
   <si>
-    <t xml:space="preserve">EQLS2UK</t>
-  </si>
-  <si>
     <t xml:space="preserve">EQLS3AT</t>
   </si>
   <si>
@@ -338,6 +338,9 @@
     <t xml:space="preserve">EQLS3FR</t>
   </si>
   <si>
+    <t xml:space="preserve">EQLS3GB</t>
+  </si>
+  <si>
     <t xml:space="preserve">EQLS3GR</t>
   </si>
   <si>
@@ -416,9 +419,6 @@
     <t xml:space="preserve">EQLS3TR</t>
   </si>
   <si>
-    <t xml:space="preserve">EQLS3UK</t>
-  </si>
-  <si>
     <t xml:space="preserve">EQLS4AL</t>
   </si>
   <si>
@@ -458,6 +458,9 @@
     <t xml:space="preserve">EQLS4FR</t>
   </si>
   <si>
+    <t xml:space="preserve">EQLS4GB</t>
+  </si>
+  <si>
     <t xml:space="preserve">EQLS4GR</t>
   </si>
   <si>
@@ -518,9 +521,6 @@
     <t xml:space="preserve">EQLS4TR</t>
   </si>
   <si>
-    <t xml:space="preserve">EQLS4UK</t>
-  </si>
-  <si>
     <t xml:space="preserve">EVS5AM</t>
   </si>
   <si>
@@ -1017,9 +1017,6 @@
   </si>
   <si>
     <t xml:space="preserve">ESS1GB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB</t>
   </si>
   <si>
     <t xml:space="preserve">ESS1GR</t>
@@ -2166,7 +2163,7 @@
         <v>2003</v>
       </c>
       <c r="F13" t="n">
-        <v>1002</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="14">
@@ -2186,7 +2183,7 @@
         <v>2003</v>
       </c>
       <c r="F14" t="n">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="15">
@@ -2206,7 +2203,7 @@
         <v>2003</v>
       </c>
       <c r="F15" t="n">
-        <v>990</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="16">
@@ -2226,7 +2223,7 @@
         <v>2003</v>
       </c>
       <c r="F16" t="n">
-        <v>1004</v>
+        <v>990</v>
       </c>
     </row>
     <row r="17">
@@ -2246,7 +2243,7 @@
         <v>2003</v>
       </c>
       <c r="F17" t="n">
-        <v>1001</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="18">
@@ -2266,7 +2263,7 @@
         <v>2003</v>
       </c>
       <c r="F18" t="n">
-        <v>605</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="19">
@@ -2286,7 +2283,7 @@
         <v>2003</v>
       </c>
       <c r="F19" t="n">
-        <v>1004</v>
+        <v>605</v>
       </c>
     </row>
     <row r="20">
@@ -2306,7 +2303,7 @@
         <v>2003</v>
       </c>
       <c r="F20" t="n">
-        <v>603</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="21">
@@ -2326,7 +2323,7 @@
         <v>2003</v>
       </c>
       <c r="F21" t="n">
-        <v>1050</v>
+        <v>603</v>
       </c>
     </row>
     <row r="22">
@@ -2346,7 +2343,7 @@
         <v>2003</v>
       </c>
       <c r="F22" t="n">
-        <v>1000</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2363,7 @@
         <v>2003</v>
       </c>
       <c r="F23" t="n">
-        <v>998</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
@@ -2386,7 +2383,7 @@
         <v>2003</v>
       </c>
       <c r="F24" t="n">
-        <v>1030</v>
+        <v>998</v>
       </c>
     </row>
     <row r="25">
@@ -2406,7 +2403,7 @@
         <v>2003</v>
       </c>
       <c r="F25" t="n">
-        <v>1000</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="26">
@@ -2426,7 +2423,7 @@
         <v>2003</v>
       </c>
       <c r="F26" t="n">
-        <v>601</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
@@ -2446,7 +2443,7 @@
         <v>2003</v>
       </c>
       <c r="F27" t="n">
-        <v>1071</v>
+        <v>601</v>
       </c>
     </row>
     <row r="28">
@@ -2466,7 +2463,7 @@
         <v>2003</v>
       </c>
       <c r="F28" t="n">
-        <v>996</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="29">
@@ -2486,7 +2483,7 @@
         <v>2003</v>
       </c>
       <c r="F29" t="n">
-        <v>1012</v>
+        <v>996</v>
       </c>
     </row>
     <row r="30">
@@ -2726,7 +2723,7 @@
         <v>2007</v>
       </c>
       <c r="F41" t="n">
-        <v>1000</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="42">
@@ -2740,7 +2737,7 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="E42" t="n">
         <v>2007</v>
@@ -2751,7 +2748,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
@@ -2760,7 +2757,7 @@
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="E43" t="n">
         <v>2007</v>
@@ -2806,7 +2803,7 @@
         <v>2007</v>
       </c>
       <c r="F45" t="n">
-        <v>1516</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="46">
@@ -2826,7 +2823,7 @@
         <v>2007</v>
       </c>
       <c r="F46" t="n">
-        <v>1004</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="47">
@@ -2866,7 +2863,7 @@
         <v>2007</v>
       </c>
       <c r="F48" t="n">
-        <v>1002</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="49">
@@ -2880,18 +2877,18 @@
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="E49" t="n">
         <v>2007</v>
       </c>
       <c r="F49" t="n">
-        <v>1008</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
@@ -2900,13 +2897,13 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="E50" t="n">
         <v>2007</v>
       </c>
       <c r="F50" t="n">
-        <v>1000</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="51">
@@ -2926,7 +2923,7 @@
         <v>2007</v>
       </c>
       <c r="F51" t="n">
-        <v>1011</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="52">
@@ -2940,18 +2937,18 @@
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="E52" t="n">
         <v>2007</v>
       </c>
       <c r="F52" t="n">
-        <v>1000</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
@@ -2960,13 +2957,13 @@
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="E53" t="n">
         <v>2007</v>
       </c>
       <c r="F53" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="54">
@@ -2986,7 +2983,7 @@
         <v>2007</v>
       </c>
       <c r="F54" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="55">
@@ -3026,7 +3023,7 @@
         <v>2007</v>
       </c>
       <c r="F56" t="n">
-        <v>1017</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="57">
@@ -3046,7 +3043,7 @@
         <v>2007</v>
       </c>
       <c r="F57" t="n">
-        <v>1035</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="58">
@@ -3066,7 +3063,7 @@
         <v>2007</v>
       </c>
       <c r="F58" t="n">
-        <v>1128</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="59">
@@ -3086,7 +3083,7 @@
         <v>2007</v>
       </c>
       <c r="F59" t="n">
-        <v>2000</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="60">
@@ -3106,7 +3103,7 @@
         <v>2007</v>
       </c>
       <c r="F60" t="n">
-        <v>1507</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="61">
@@ -3346,7 +3343,7 @@
         <v>2011</v>
       </c>
       <c r="F72" t="n">
-        <v>1004</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="73">
@@ -3360,13 +3357,13 @@
         <v>3</v>
       </c>
       <c r="D73" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="E73" t="n">
         <v>2011</v>
       </c>
       <c r="F73" t="n">
-        <v>1001</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="74">
@@ -3380,13 +3377,13 @@
         <v>3</v>
       </c>
       <c r="D74" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="E74" t="n">
         <v>2011</v>
       </c>
       <c r="F74" t="n">
-        <v>1024</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="75">
@@ -3406,7 +3403,7 @@
         <v>2011</v>
       </c>
       <c r="F75" t="n">
-        <v>1051</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="76">
@@ -3420,18 +3417,18 @@
         <v>3</v>
       </c>
       <c r="D76" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="E76" t="n">
         <v>2011</v>
       </c>
       <c r="F76" t="n">
-        <v>1000</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B77" t="s">
         <v>7</v>
@@ -3440,13 +3437,13 @@
         <v>3</v>
       </c>
       <c r="D77" t="s">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="E77" t="n">
         <v>2011</v>
       </c>
       <c r="F77" t="n">
-        <v>2250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="78">
@@ -3460,18 +3457,18 @@
         <v>3</v>
       </c>
       <c r="D78" t="s">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="E78" t="n">
         <v>2011</v>
       </c>
       <c r="F78" t="n">
-        <v>1076</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
@@ -3480,13 +3477,13 @@
         <v>3</v>
       </c>
       <c r="D79" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="E79" t="n">
         <v>2011</v>
       </c>
       <c r="F79" t="n">
-        <v>1134</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="80">
@@ -3506,7 +3503,7 @@
         <v>2011</v>
       </c>
       <c r="F80" t="n">
-        <v>1005</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="81">
@@ -3526,7 +3523,7 @@
         <v>2011</v>
       </c>
       <c r="F81" t="n">
-        <v>1009</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="82">
@@ -3540,18 +3537,18 @@
         <v>3</v>
       </c>
       <c r="D82" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="E82" t="n">
         <v>2011</v>
       </c>
       <c r="F82" t="n">
-        <v>1000</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B83" t="s">
         <v>7</v>
@@ -3560,13 +3557,13 @@
         <v>3</v>
       </c>
       <c r="D83" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="E83" t="n">
         <v>2011</v>
       </c>
       <c r="F83" t="n">
-        <v>1006</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="84">
@@ -3580,13 +3577,13 @@
         <v>3</v>
       </c>
       <c r="D84" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="E84" t="n">
         <v>2011</v>
       </c>
       <c r="F84" t="n">
-        <v>1001</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="85">
@@ -3606,7 +3603,7 @@
         <v>2011</v>
       </c>
       <c r="F85" t="n">
-        <v>1008</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="86">
@@ -3626,7 +3623,7 @@
         <v>2011</v>
       </c>
       <c r="F86" t="n">
-        <v>2262</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="87">
@@ -3646,7 +3643,7 @@
         <v>2011</v>
       </c>
       <c r="F87" t="n">
-        <v>1013</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="88">
@@ -3666,7 +3663,7 @@
         <v>2011</v>
       </c>
       <c r="F88" t="n">
-        <v>1542</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="89">
@@ -3680,18 +3677,18 @@
         <v>3</v>
       </c>
       <c r="D89" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="E89" t="n">
         <v>2011</v>
       </c>
       <c r="F89" t="n">
-        <v>1002</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
@@ -3700,13 +3697,13 @@
         <v>3</v>
       </c>
       <c r="D90" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="E90" t="n">
         <v>2011</v>
       </c>
       <c r="F90" t="n">
-        <v>1007</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="91">
@@ -3726,7 +3723,7 @@
         <v>2011</v>
       </c>
       <c r="F91" t="n">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="92">
@@ -3746,7 +3743,7 @@
         <v>2011</v>
       </c>
       <c r="F92" t="n">
-        <v>1000</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="93">
@@ -3766,7 +3763,7 @@
         <v>2011</v>
       </c>
       <c r="F93" t="n">
-        <v>2035</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="94">
@@ -3786,7 +3783,7 @@
         <v>2011</v>
       </c>
       <c r="F94" t="n">
-        <v>2252</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="95">
@@ -4046,7 +4043,7 @@
         <v>2016</v>
       </c>
       <c r="F107" t="n">
-        <v>1096</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="108">
@@ -4060,13 +4057,13 @@
         <v>4</v>
       </c>
       <c r="D108" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="E108" t="n">
         <v>2016</v>
       </c>
       <c r="F108" t="n">
-        <v>1011</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="109">
@@ -4080,13 +4077,13 @@
         <v>4</v>
       </c>
       <c r="D109" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="E109" t="n">
         <v>2016</v>
       </c>
       <c r="F109" t="n">
-        <v>1042</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="110">
@@ -4106,7 +4103,7 @@
         <v>2016</v>
       </c>
       <c r="F110" t="n">
-        <v>1011</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="111">
@@ -4126,7 +4123,7 @@
         <v>2016</v>
       </c>
       <c r="F111" t="n">
-        <v>2007</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="112">
@@ -4146,7 +4143,7 @@
         <v>2016</v>
       </c>
       <c r="F112" t="n">
-        <v>1005</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="113">
@@ -4166,7 +4163,7 @@
         <v>2016</v>
       </c>
       <c r="F113" t="n">
-        <v>1021</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="114">
@@ -4186,7 +4183,7 @@
         <v>2016</v>
       </c>
       <c r="F114" t="n">
-        <v>1000</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="115">
@@ -4200,7 +4197,7 @@
         <v>4</v>
       </c>
       <c r="D115" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="E115" t="n">
         <v>2016</v>
@@ -4220,13 +4217,13 @@
         <v>4</v>
       </c>
       <c r="D116" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="E116" t="n">
         <v>2016</v>
       </c>
       <c r="F116" t="n">
-        <v>1013</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="117">
@@ -4240,13 +4237,13 @@
         <v>4</v>
       </c>
       <c r="D117" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="E117" t="n">
         <v>2016</v>
       </c>
       <c r="F117" t="n">
-        <v>1000</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="118">
@@ -4266,7 +4263,7 @@
         <v>2016</v>
       </c>
       <c r="F118" t="n">
-        <v>1010</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="119">
@@ -4286,7 +4283,7 @@
         <v>2016</v>
       </c>
       <c r="F119" t="n">
-        <v>1009</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="120">
@@ -4306,7 +4303,7 @@
         <v>2016</v>
       </c>
       <c r="F120" t="n">
-        <v>1070</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="121">
@@ -4326,7 +4323,7 @@
         <v>2016</v>
       </c>
       <c r="F121" t="n">
-        <v>1004</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="122">
@@ -4340,13 +4337,13 @@
         <v>4</v>
       </c>
       <c r="D122" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="E122" t="n">
         <v>2016</v>
       </c>
       <c r="F122" t="n">
-        <v>1056</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="123">
@@ -4360,13 +4357,13 @@
         <v>4</v>
       </c>
       <c r="D123" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="E123" t="n">
         <v>2016</v>
       </c>
       <c r="F123" t="n">
-        <v>1053</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="124">
@@ -4386,7 +4383,7 @@
         <v>2016</v>
       </c>
       <c r="F124" t="n">
-        <v>1003</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="125">
@@ -4406,7 +4403,7 @@
         <v>2016</v>
       </c>
       <c r="F125" t="n">
-        <v>1019</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="126">
@@ -4426,7 +4423,7 @@
         <v>2016</v>
       </c>
       <c r="F126" t="n">
-        <v>2019</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="127">
@@ -4446,7 +4443,7 @@
         <v>2016</v>
       </c>
       <c r="F127" t="n">
-        <v>1304</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="128">
@@ -4640,7 +4637,7 @@
         <v>5</v>
       </c>
       <c r="D137" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E137" t="n">
         <v>2017</v>
@@ -4660,7 +4657,7 @@
         <v>5</v>
       </c>
       <c r="D138" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E138" t="n">
         <v>2017</v>
@@ -4680,7 +4677,7 @@
         <v>5</v>
       </c>
       <c r="D139" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E139" t="n">
         <v>2017</v>
@@ -4700,7 +4697,7 @@
         <v>5</v>
       </c>
       <c r="D140" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E140" t="n">
         <v>2017</v>
@@ -4740,7 +4737,7 @@
         <v>5</v>
       </c>
       <c r="D142" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E142" t="n">
         <v>2017</v>
@@ -4760,7 +4757,7 @@
         <v>5</v>
       </c>
       <c r="D143" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E143" t="n">
         <v>2017</v>
@@ -4940,7 +4937,7 @@
         <v>1</v>
       </c>
       <c r="D152" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E152" t="n">
         <v>1981</v>
@@ -4960,7 +4957,7 @@
         <v>1</v>
       </c>
       <c r="D153" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E153" t="n">
         <v>1984</v>
@@ -4980,7 +4977,7 @@
         <v>1</v>
       </c>
       <c r="D154" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E154" t="n">
         <v>1981</v>
@@ -5000,7 +4997,7 @@
         <v>1</v>
       </c>
       <c r="D155" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E155" t="n">
         <v>1983</v>
@@ -5020,7 +5017,7 @@
         <v>1</v>
       </c>
       <c r="D156" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E156" t="n">
         <v>1981</v>
@@ -5040,7 +5037,7 @@
         <v>1</v>
       </c>
       <c r="D157" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E157" t="n">
         <v>1982</v>
@@ -5060,7 +5057,7 @@
         <v>1</v>
       </c>
       <c r="D158" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E158" t="n">
         <v>1982</v>
@@ -5360,7 +5357,7 @@
         <v>2</v>
       </c>
       <c r="D173" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E173" t="n">
         <v>1991</v>
@@ -5380,7 +5377,7 @@
         <v>2</v>
       </c>
       <c r="D174" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E174" t="n">
         <v>1990</v>
@@ -5400,7 +5397,7 @@
         <v>2</v>
       </c>
       <c r="D175" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E175" t="n">
         <v>1990</v>
@@ -5420,7 +5417,7 @@
         <v>2</v>
       </c>
       <c r="D176" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E176" t="n">
         <v>1990</v>
@@ -5440,7 +5437,7 @@
         <v>2</v>
       </c>
       <c r="D177" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E177" t="n">
         <v>1990</v>
@@ -5460,7 +5457,7 @@
         <v>2</v>
       </c>
       <c r="D178" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E178" t="n">
         <v>1990</v>
@@ -5480,7 +5477,7 @@
         <v>2</v>
       </c>
       <c r="D179" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E179" t="n">
         <v>1991</v>
@@ -5500,7 +5497,7 @@
         <v>2</v>
       </c>
       <c r="D180" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E180" t="n">
         <v>1990</v>
@@ -5520,7 +5517,7 @@
         <v>2</v>
       </c>
       <c r="D181" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E181" t="n">
         <v>1990</v>
@@ -5540,7 +5537,7 @@
         <v>2</v>
       </c>
       <c r="D182" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E182" t="n">
         <v>1990</v>
@@ -5560,7 +5557,7 @@
         <v>2</v>
       </c>
       <c r="D183" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E183" t="n">
         <v>1990</v>
@@ -5580,7 +5577,7 @@
         <v>2</v>
       </c>
       <c r="D184" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E184" t="n">
         <v>1993</v>
@@ -5600,7 +5597,7 @@
         <v>2</v>
       </c>
       <c r="D185" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E185" t="n">
         <v>1990</v>
@@ -5620,7 +5617,7 @@
         <v>2</v>
       </c>
       <c r="D186" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E186" t="n">
         <v>1992</v>
@@ -5640,7 +5637,7 @@
         <v>2</v>
       </c>
       <c r="D187" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E187" t="n">
         <v>1991</v>
@@ -5940,7 +5937,7 @@
         <v>3</v>
       </c>
       <c r="D202" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E202" t="n">
         <v>1999</v>
@@ -5960,7 +5957,7 @@
         <v>3</v>
       </c>
       <c r="D203" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E203" t="n">
         <v>1999</v>
@@ -5980,7 +5977,7 @@
         <v>3</v>
       </c>
       <c r="D204" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E204" t="n">
         <v>1999</v>
@@ -6000,7 +5997,7 @@
         <v>3</v>
       </c>
       <c r="D205" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E205" t="n">
         <v>1999</v>
@@ -6020,7 +6017,7 @@
         <v>3</v>
       </c>
       <c r="D206" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E206" t="n">
         <v>1999</v>
@@ -6040,7 +6037,7 @@
         <v>3</v>
       </c>
       <c r="D207" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E207" t="n">
         <v>1999</v>
@@ -6060,7 +6057,7 @@
         <v>3</v>
       </c>
       <c r="D208" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E208" t="n">
         <v>1999</v>
@@ -6080,7 +6077,7 @@
         <v>3</v>
       </c>
       <c r="D209" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E209" t="n">
         <v>1999</v>
@@ -6100,7 +6097,7 @@
         <v>3</v>
       </c>
       <c r="D210" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E210" t="n">
         <v>1999</v>
@@ -6120,7 +6117,7 @@
         <v>3</v>
       </c>
       <c r="D211" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E211" t="n">
         <v>1999</v>
@@ -6140,7 +6137,7 @@
         <v>3</v>
       </c>
       <c r="D212" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E212" t="n">
         <v>1999</v>
@@ -6160,7 +6157,7 @@
         <v>3</v>
       </c>
       <c r="D213" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E213" t="n">
         <v>1999</v>
@@ -6180,7 +6177,7 @@
         <v>3</v>
       </c>
       <c r="D214" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E214" t="n">
         <v>1999</v>
@@ -6200,7 +6197,7 @@
         <v>3</v>
       </c>
       <c r="D215" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E215" t="n">
         <v>1999</v>
@@ -6240,7 +6237,7 @@
         <v>3</v>
       </c>
       <c r="D217" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E217" t="n">
         <v>1999</v>
@@ -6260,7 +6257,7 @@
         <v>3</v>
       </c>
       <c r="D218" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E218" t="n">
         <v>1999</v>
@@ -6280,7 +6277,7 @@
         <v>3</v>
       </c>
       <c r="D219" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E219" t="n">
         <v>1999</v>
@@ -6300,7 +6297,7 @@
         <v>3</v>
       </c>
       <c r="D220" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E220" t="n">
         <v>2001</v>
@@ -6740,7 +6737,7 @@
         <v>4</v>
       </c>
       <c r="D242" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E242" t="n">
         <v>2008</v>
@@ -6760,7 +6757,7 @@
         <v>4</v>
       </c>
       <c r="D243" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E243" t="n">
         <v>2008</v>
@@ -6780,7 +6777,7 @@
         <v>4</v>
       </c>
       <c r="D244" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E244" t="n">
         <v>2008</v>
@@ -6800,7 +6797,7 @@
         <v>4</v>
       </c>
       <c r="D245" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E245" t="n">
         <v>2008</v>
@@ -6820,7 +6817,7 @@
         <v>4</v>
       </c>
       <c r="D246" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E246" t="n">
         <v>2009</v>
@@ -6840,7 +6837,7 @@
         <v>4</v>
       </c>
       <c r="D247" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E247" t="n">
         <v>2009</v>
@@ -6860,7 +6857,7 @@
         <v>4</v>
       </c>
       <c r="D248" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E248" t="n">
         <v>2008</v>
@@ -6880,7 +6877,7 @@
         <v>4</v>
       </c>
       <c r="D249" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E249" t="n">
         <v>2008</v>
@@ -6900,7 +6897,7 @@
         <v>4</v>
       </c>
       <c r="D250" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E250" t="n">
         <v>2008</v>
@@ -6940,7 +6937,7 @@
         <v>4</v>
       </c>
       <c r="D252" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E252" t="n">
         <v>2008</v>
@@ -6960,7 +6957,7 @@
         <v>4</v>
       </c>
       <c r="D253" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E253" t="n">
         <v>2008</v>
@@ -6980,7 +6977,7 @@
         <v>4</v>
       </c>
       <c r="D254" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E254" t="n">
         <v>2008</v>
@@ -7000,7 +6997,7 @@
         <v>4</v>
       </c>
       <c r="D255" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E255" t="n">
         <v>2008</v>
@@ -7020,7 +7017,7 @@
         <v>4</v>
       </c>
       <c r="D256" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E256" t="n">
         <v>2008</v>
@@ -7040,7 +7037,7 @@
         <v>4</v>
       </c>
       <c r="D257" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E257" t="n">
         <v>2008</v>
@@ -7060,7 +7057,7 @@
         <v>4</v>
       </c>
       <c r="D258" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E258" t="n">
         <v>2008</v>
@@ -7080,7 +7077,7 @@
         <v>4</v>
       </c>
       <c r="D259" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E259" t="n">
         <v>2008</v>
@@ -7100,7 +7097,7 @@
         <v>4</v>
       </c>
       <c r="D260" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E260" t="n">
         <v>2008</v>
@@ -7160,7 +7157,7 @@
         <v>4</v>
       </c>
       <c r="D263" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E263" t="n">
         <v>2009</v>
@@ -7180,7 +7177,7 @@
         <v>4</v>
       </c>
       <c r="D264" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E264" t="n">
         <v>2008</v>
@@ -7200,7 +7197,7 @@
         <v>4</v>
       </c>
       <c r="D265" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E265" t="n">
         <v>2008</v>
@@ -7220,7 +7217,7 @@
         <v>4</v>
       </c>
       <c r="D266" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E266" t="n">
         <v>2009</v>
@@ -7440,7 +7437,7 @@
         <v>1</v>
       </c>
       <c r="D277" t="s">
-        <v>335</v>
+        <v>30</v>
       </c>
       <c r="E277" t="n">
         <v>2002</v>
@@ -7451,7 +7448,7 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B278" t="s">
         <v>325</v>
@@ -7460,7 +7457,7 @@
         <v>1</v>
       </c>
       <c r="D278" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E278" t="n">
         <v>2003</v>
@@ -7471,7 +7468,7 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B279" t="s">
         <v>325</v>
@@ -7480,7 +7477,7 @@
         <v>1</v>
       </c>
       <c r="D279" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E279" t="n">
         <v>2002</v>
@@ -7491,7 +7488,7 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B280" t="s">
         <v>325</v>
@@ -7500,7 +7497,7 @@
         <v>1</v>
       </c>
       <c r="D280" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E280" t="n">
         <v>2003</v>
@@ -7511,7 +7508,7 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B281" t="s">
         <v>325</v>
@@ -7520,7 +7517,7 @@
         <v>1</v>
       </c>
       <c r="D281" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E281" t="n">
         <v>2002</v>
@@ -7531,7 +7528,7 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B282" t="s">
         <v>325</v>
@@ -7540,7 +7537,7 @@
         <v>1</v>
       </c>
       <c r="D282" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E282" t="n">
         <v>2003</v>
@@ -7551,7 +7548,7 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B283" t="s">
         <v>325</v>
@@ -7560,7 +7557,7 @@
         <v>1</v>
       </c>
       <c r="D283" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E283" t="n">
         <v>2003</v>
@@ -7571,7 +7568,7 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B284" t="s">
         <v>325</v>
@@ -7580,7 +7577,7 @@
         <v>1</v>
       </c>
       <c r="D284" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E284" t="n">
         <v>2002</v>
@@ -7591,7 +7588,7 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B285" t="s">
         <v>325</v>
@@ -7600,7 +7597,7 @@
         <v>1</v>
       </c>
       <c r="D285" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E285" t="n">
         <v>2002</v>
@@ -7611,7 +7608,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B286" t="s">
         <v>325</v>
@@ -7620,7 +7617,7 @@
         <v>1</v>
       </c>
       <c r="D286" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E286" t="n">
         <v>2002</v>
@@ -7631,7 +7628,7 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B287" t="s">
         <v>325</v>
@@ -7640,7 +7637,7 @@
         <v>1</v>
       </c>
       <c r="D287" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E287" t="n">
         <v>2002</v>
@@ -7651,7 +7648,7 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B288" t="s">
         <v>325</v>
@@ -7660,7 +7657,7 @@
         <v>1</v>
       </c>
       <c r="D288" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E288" t="n">
         <v>2002</v>
@@ -7671,7 +7668,7 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B289" t="s">
         <v>325</v>
@@ -7680,7 +7677,7 @@
         <v>1</v>
       </c>
       <c r="D289" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E289" t="n">
         <v>2002</v>
@@ -7691,7 +7688,7 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B290" t="s">
         <v>325</v>
@@ -7711,7 +7708,7 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B291" t="s">
         <v>325</v>
@@ -7731,7 +7728,7 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B292" t="s">
         <v>325</v>
@@ -7751,7 +7748,7 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B293" t="s">
         <v>325</v>
@@ -7771,7 +7768,7 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B294" t="s">
         <v>325</v>
@@ -7791,7 +7788,7 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B295" t="s">
         <v>325</v>
@@ -7811,7 +7808,7 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B296" t="s">
         <v>325</v>
@@ -7831,7 +7828,7 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B297" t="s">
         <v>325</v>
@@ -7851,7 +7848,7 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B298" t="s">
         <v>325</v>
@@ -7871,7 +7868,7 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B299" t="s">
         <v>325</v>
@@ -7891,7 +7888,7 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B300" t="s">
         <v>325</v>
@@ -7900,7 +7897,7 @@
         <v>2</v>
       </c>
       <c r="D300" t="s">
-        <v>335</v>
+        <v>30</v>
       </c>
       <c r="E300" t="n">
         <v>2004</v>
@@ -7911,7 +7908,7 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B301" t="s">
         <v>325</v>
@@ -7920,7 +7917,7 @@
         <v>2</v>
       </c>
       <c r="D301" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E301" t="n">
         <v>2005</v>
@@ -7931,7 +7928,7 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B302" t="s">
         <v>325</v>
@@ -7940,7 +7937,7 @@
         <v>2</v>
       </c>
       <c r="D302" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E302" t="n">
         <v>2005</v>
@@ -7951,7 +7948,7 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B303" t="s">
         <v>325</v>
@@ -7960,7 +7957,7 @@
         <v>2</v>
       </c>
       <c r="D303" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E303" t="n">
         <v>2005</v>
@@ -7971,7 +7968,7 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B304" t="s">
         <v>325</v>
@@ -7980,7 +7977,7 @@
         <v>2</v>
       </c>
       <c r="D304" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E304" t="n">
         <v>2005</v>
@@ -7991,7 +7988,7 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B305" t="s">
         <v>325</v>
@@ -8000,7 +7997,7 @@
         <v>2</v>
       </c>
       <c r="D305" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E305" t="n">
         <v>2004</v>
@@ -8011,7 +8008,7 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B306" t="s">
         <v>325</v>
@@ -8020,7 +8017,7 @@
         <v>2</v>
       </c>
       <c r="D306" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E306" t="n">
         <v>2004</v>
@@ -8031,7 +8028,7 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B307" t="s">
         <v>325</v>
@@ -8040,7 +8037,7 @@
         <v>2</v>
       </c>
       <c r="D307" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E307" t="n">
         <v>2004</v>
@@ -8051,7 +8048,7 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B308" t="s">
         <v>325</v>
@@ -8060,7 +8057,7 @@
         <v>2</v>
       </c>
       <c r="D308" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E308" t="n">
         <v>2004</v>
@@ -8071,7 +8068,7 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B309" t="s">
         <v>325</v>
@@ -8080,7 +8077,7 @@
         <v>2</v>
       </c>
       <c r="D309" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E309" t="n">
         <v>2005</v>
@@ -8091,7 +8088,7 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B310" t="s">
         <v>325</v>
@@ -8100,7 +8097,7 @@
         <v>2</v>
       </c>
       <c r="D310" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E310" t="n">
         <v>2004</v>
@@ -8111,7 +8108,7 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B311" t="s">
         <v>325</v>
@@ -8120,7 +8117,7 @@
         <v>2</v>
       </c>
       <c r="D311" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E311" t="n">
         <v>2004</v>
@@ -8131,7 +8128,7 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B312" t="s">
         <v>325</v>
@@ -8140,7 +8137,7 @@
         <v>2</v>
       </c>
       <c r="D312" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E312" t="n">
         <v>2004</v>
@@ -8151,7 +8148,7 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B313" t="s">
         <v>325</v>
@@ -8160,7 +8157,7 @@
         <v>2</v>
       </c>
       <c r="D313" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E313" t="n">
         <v>2006</v>
@@ -8171,7 +8168,7 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B314" t="s">
         <v>325</v>
@@ -8191,7 +8188,7 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B315" t="s">
         <v>325</v>
@@ -8211,7 +8208,7 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B316" t="s">
         <v>325</v>
@@ -8231,7 +8228,7 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B317" t="s">
         <v>325</v>
@@ -8251,7 +8248,7 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B318" t="s">
         <v>325</v>
@@ -8271,7 +8268,7 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B319" t="s">
         <v>325</v>
@@ -8291,7 +8288,7 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B320" t="s">
         <v>325</v>
@@ -8311,7 +8308,7 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B321" t="s">
         <v>325</v>
@@ -8331,7 +8328,7 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B322" t="s">
         <v>325</v>
@@ -8351,7 +8348,7 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B323" t="s">
         <v>325</v>
@@ -8371,7 +8368,7 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B324" t="s">
         <v>325</v>
@@ -8391,7 +8388,7 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B325" t="s">
         <v>325</v>
@@ -8411,7 +8408,7 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B326" t="s">
         <v>325</v>
@@ -8420,7 +8417,7 @@
         <v>3</v>
       </c>
       <c r="D326" t="s">
-        <v>335</v>
+        <v>30</v>
       </c>
       <c r="E326" t="n">
         <v>2006</v>
@@ -8431,7 +8428,7 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B327" t="s">
         <v>325</v>
@@ -8440,7 +8437,7 @@
         <v>3</v>
       </c>
       <c r="D327" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E327" t="n">
         <v>2006</v>
@@ -8451,7 +8448,7 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B328" t="s">
         <v>325</v>
@@ -8460,7 +8457,7 @@
         <v>3</v>
       </c>
       <c r="D328" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E328" t="n">
         <v>2007</v>
@@ -8471,7 +8468,7 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B329" t="s">
         <v>325</v>
@@ -8480,7 +8477,7 @@
         <v>3</v>
       </c>
       <c r="D329" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E329" t="n">
         <v>2006</v>
@@ -8491,7 +8488,7 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B330" t="s">
         <v>325</v>
@@ -8500,7 +8497,7 @@
         <v>3</v>
       </c>
       <c r="D330" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E330" t="n">
         <v>2006</v>
@@ -8511,7 +8508,7 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B331" t="s">
         <v>325</v>
@@ -8520,7 +8517,7 @@
         <v>3</v>
       </c>
       <c r="D331" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E331" t="n">
         <v>2006</v>
@@ -8531,7 +8528,7 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B332" t="s">
         <v>325</v>
@@ -8540,7 +8537,7 @@
         <v>3</v>
       </c>
       <c r="D332" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E332" t="n">
         <v>2007</v>
@@ -8551,7 +8548,7 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B333" t="s">
         <v>325</v>
@@ -8571,7 +8568,7 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B334" t="s">
         <v>325</v>
@@ -8580,7 +8577,7 @@
         <v>3</v>
       </c>
       <c r="D334" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E334" t="n">
         <v>2006</v>
@@ -8591,7 +8588,7 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B335" t="s">
         <v>325</v>
@@ -8600,7 +8597,7 @@
         <v>3</v>
       </c>
       <c r="D335" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E335" t="n">
         <v>2006</v>
@@ -8611,7 +8608,7 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B336" t="s">
         <v>325</v>
@@ -8620,7 +8617,7 @@
         <v>3</v>
       </c>
       <c r="D336" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E336" t="n">
         <v>2007</v>
@@ -8631,7 +8628,7 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B337" t="s">
         <v>325</v>
@@ -8651,7 +8648,7 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B338" t="s">
         <v>325</v>
@@ -8671,7 +8668,7 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B339" t="s">
         <v>325</v>
@@ -8691,7 +8688,7 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B340" t="s">
         <v>325</v>
@@ -8711,7 +8708,7 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B341" t="s">
         <v>325</v>
@@ -8731,7 +8728,7 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B342" t="s">
         <v>325</v>
@@ -8751,7 +8748,7 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B343" t="s">
         <v>325</v>
@@ -8771,7 +8768,7 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B344" t="s">
         <v>325</v>
@@ -8791,7 +8788,7 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B345" t="s">
         <v>325</v>
@@ -8811,7 +8808,7 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B346" t="s">
         <v>325</v>
@@ -8831,7 +8828,7 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B347" t="s">
         <v>325</v>
@@ -8851,7 +8848,7 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B348" t="s">
         <v>325</v>
@@ -8871,7 +8868,7 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B349" t="s">
         <v>325</v>
@@ -8880,7 +8877,7 @@
         <v>4</v>
       </c>
       <c r="D349" t="s">
-        <v>335</v>
+        <v>30</v>
       </c>
       <c r="E349" t="n">
         <v>2008</v>
@@ -8891,7 +8888,7 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B350" t="s">
         <v>325</v>
@@ -8900,7 +8897,7 @@
         <v>4</v>
       </c>
       <c r="D350" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E350" t="n">
         <v>2009</v>
@@ -8911,7 +8908,7 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B351" t="s">
         <v>325</v>
@@ -8920,7 +8917,7 @@
         <v>4</v>
       </c>
       <c r="D351" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E351" t="n">
         <v>2009</v>
@@ -8931,7 +8928,7 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B352" t="s">
         <v>325</v>
@@ -8940,7 +8937,7 @@
         <v>4</v>
       </c>
       <c r="D352" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E352" t="n">
         <v>2009</v>
@@ -8951,7 +8948,7 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B353" t="s">
         <v>325</v>
@@ -8960,7 +8957,7 @@
         <v>4</v>
       </c>
       <c r="D353" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E353" t="n">
         <v>2009</v>
@@ -8971,7 +8968,7 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B354" t="s">
         <v>325</v>
@@ -8980,7 +8977,7 @@
         <v>4</v>
       </c>
       <c r="D354" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E354" t="n">
         <v>2008</v>
@@ -8991,7 +8988,7 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B355" t="s">
         <v>325</v>
@@ -9000,7 +8997,7 @@
         <v>4</v>
       </c>
       <c r="D355" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E355" t="n">
         <v>2008</v>
@@ -9011,7 +9008,7 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B356" t="s">
         <v>325</v>
@@ -9020,7 +9017,7 @@
         <v>4</v>
       </c>
       <c r="D356" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E356" t="n">
         <v>2008</v>
@@ -9031,7 +9028,7 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B357" t="s">
         <v>325</v>
@@ -9040,7 +9037,7 @@
         <v>4</v>
       </c>
       <c r="D357" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E357" t="n">
         <v>2008</v>
@@ -9051,7 +9048,7 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B358" t="s">
         <v>325</v>
@@ -9060,7 +9057,7 @@
         <v>4</v>
       </c>
       <c r="D358" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E358" t="n">
         <v>2009</v>
@@ -9071,7 +9068,7 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B359" t="s">
         <v>325</v>
@@ -9091,7 +9088,7 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B360" t="s">
         <v>325</v>
@@ -9100,7 +9097,7 @@
         <v>4</v>
       </c>
       <c r="D360" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E360" t="n">
         <v>2008</v>
@@ -9111,7 +9108,7 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B361" t="s">
         <v>325</v>
@@ -9120,7 +9117,7 @@
         <v>4</v>
       </c>
       <c r="D361" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E361" t="n">
         <v>2008</v>
@@ -9131,7 +9128,7 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B362" t="s">
         <v>325</v>
@@ -9140,7 +9137,7 @@
         <v>4</v>
       </c>
       <c r="D362" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E362" t="n">
         <v>2008</v>
@@ -9151,7 +9148,7 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B363" t="s">
         <v>325</v>
@@ -9160,7 +9157,7 @@
         <v>4</v>
       </c>
       <c r="D363" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E363" t="n">
         <v>2009</v>
@@ -9171,7 +9168,7 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B364" t="s">
         <v>325</v>
@@ -9191,7 +9188,7 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B365" t="s">
         <v>325</v>
@@ -9211,7 +9208,7 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B366" t="s">
         <v>325</v>
@@ -9231,7 +9228,7 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B367" t="s">
         <v>325</v>
@@ -9251,7 +9248,7 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B368" t="s">
         <v>325</v>
@@ -9271,7 +9268,7 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B369" t="s">
         <v>325</v>
@@ -9291,7 +9288,7 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B370" t="s">
         <v>325</v>
@@ -9311,7 +9308,7 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B371" t="s">
         <v>325</v>
@@ -9331,7 +9328,7 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B372" t="s">
         <v>325</v>
@@ -9351,7 +9348,7 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B373" t="s">
         <v>325</v>
@@ -9371,7 +9368,7 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B374" t="s">
         <v>325</v>
@@ -9391,7 +9388,7 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B375" t="s">
         <v>325</v>
@@ -9411,7 +9408,7 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B376" t="s">
         <v>325</v>
@@ -9420,7 +9417,7 @@
         <v>5</v>
       </c>
       <c r="D376" t="s">
-        <v>335</v>
+        <v>30</v>
       </c>
       <c r="E376" t="n">
         <v>2010</v>
@@ -9431,7 +9428,7 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B377" t="s">
         <v>325</v>
@@ -9440,7 +9437,7 @@
         <v>5</v>
       </c>
       <c r="D377" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E377" t="n">
         <v>2011</v>
@@ -9451,7 +9448,7 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B378" t="s">
         <v>325</v>
@@ -9460,7 +9457,7 @@
         <v>5</v>
       </c>
       <c r="D378" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E378" t="n">
         <v>2011</v>
@@ -9471,7 +9468,7 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B379" t="s">
         <v>325</v>
@@ -9480,7 +9477,7 @@
         <v>5</v>
       </c>
       <c r="D379" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E379" t="n">
         <v>2010</v>
@@ -9491,7 +9488,7 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B380" t="s">
         <v>325</v>
@@ -9500,7 +9497,7 @@
         <v>5</v>
       </c>
       <c r="D380" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E380" t="n">
         <v>2011</v>
@@ -9511,7 +9508,7 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B381" t="s">
         <v>325</v>
@@ -9520,7 +9517,7 @@
         <v>5</v>
       </c>
       <c r="D381" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E381" t="n">
         <v>2011</v>
@@ -9531,7 +9528,7 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B382" t="s">
         <v>325</v>
@@ -9540,7 +9537,7 @@
         <v>5</v>
       </c>
       <c r="D382" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E382" t="n">
         <v>2011</v>
@@ -9551,7 +9548,7 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B383" t="s">
         <v>325</v>
@@ -9560,7 +9557,7 @@
         <v>5</v>
       </c>
       <c r="D383" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E383" t="n">
         <v>2010</v>
@@ -9571,7 +9568,7 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B384" t="s">
         <v>325</v>
@@ -9580,7 +9577,7 @@
         <v>5</v>
       </c>
       <c r="D384" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E384" t="n">
         <v>2010</v>
@@ -9591,7 +9588,7 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B385" t="s">
         <v>325</v>
@@ -9600,7 +9597,7 @@
         <v>5</v>
       </c>
       <c r="D385" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E385" t="n">
         <v>2010</v>
@@ -9611,7 +9608,7 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B386" t="s">
         <v>325</v>
@@ -9620,7 +9617,7 @@
         <v>5</v>
       </c>
       <c r="D386" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E386" t="n">
         <v>2011</v>
@@ -9631,7 +9628,7 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B387" t="s">
         <v>325</v>
@@ -9651,7 +9648,7 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B388" t="s">
         <v>325</v>
@@ -9660,7 +9657,7 @@
         <v>5</v>
       </c>
       <c r="D388" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E388" t="n">
         <v>2010</v>
@@ -9671,7 +9668,7 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B389" t="s">
         <v>325</v>
@@ -9680,7 +9677,7 @@
         <v>5</v>
       </c>
       <c r="D389" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E389" t="n">
         <v>2010</v>
@@ -9691,7 +9688,7 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B390" t="s">
         <v>325</v>
@@ -9700,7 +9697,7 @@
         <v>5</v>
       </c>
       <c r="D390" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E390" t="n">
         <v>2010</v>
@@ -9711,7 +9708,7 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B391" t="s">
         <v>325</v>
@@ -9731,7 +9728,7 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B392" t="s">
         <v>325</v>
@@ -9751,7 +9748,7 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B393" t="s">
         <v>325</v>
@@ -9771,7 +9768,7 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B394" t="s">
         <v>325</v>
@@ -9791,7 +9788,7 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B395" t="s">
         <v>325</v>
@@ -9811,7 +9808,7 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B396" t="s">
         <v>325</v>
@@ -9831,7 +9828,7 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B397" t="s">
         <v>325</v>
@@ -9851,7 +9848,7 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B398" t="s">
         <v>325</v>
@@ -9871,7 +9868,7 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B399" t="s">
         <v>325</v>
@@ -9891,7 +9888,7 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B400" t="s">
         <v>325</v>
@@ -9911,7 +9908,7 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B401" t="s">
         <v>325</v>
@@ -9931,7 +9928,7 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B402" t="s">
         <v>325</v>
@@ -9951,7 +9948,7 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B403" t="s">
         <v>325</v>
@@ -9960,7 +9957,7 @@
         <v>6</v>
       </c>
       <c r="D403" t="s">
-        <v>335</v>
+        <v>30</v>
       </c>
       <c r="E403" t="n">
         <v>2012</v>
@@ -9971,7 +9968,7 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B404" t="s">
         <v>325</v>
@@ -9980,7 +9977,7 @@
         <v>6</v>
       </c>
       <c r="D404" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E404" t="n">
         <v>2012</v>
@@ -9991,7 +9988,7 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B405" t="s">
         <v>325</v>
@@ -10000,7 +9997,7 @@
         <v>6</v>
       </c>
       <c r="D405" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E405" t="n">
         <v>2013</v>
@@ -10011,7 +10008,7 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B406" t="s">
         <v>325</v>
@@ -10020,7 +10017,7 @@
         <v>6</v>
       </c>
       <c r="D406" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E406" t="n">
         <v>2012</v>
@@ -10031,7 +10028,7 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B407" t="s">
         <v>325</v>
@@ -10040,7 +10037,7 @@
         <v>6</v>
       </c>
       <c r="D407" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E407" t="n">
         <v>2012</v>
@@ -10051,7 +10048,7 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B408" t="s">
         <v>325</v>
@@ -10060,7 +10057,7 @@
         <v>6</v>
       </c>
       <c r="D408" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E408" t="n">
         <v>2013</v>
@@ -10071,7 +10068,7 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B409" t="s">
         <v>325</v>
@@ -10080,7 +10077,7 @@
         <v>6</v>
       </c>
       <c r="D409" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E409" t="n">
         <v>2013</v>
@@ -10091,7 +10088,7 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B410" t="s">
         <v>325</v>
@@ -10100,7 +10097,7 @@
         <v>6</v>
       </c>
       <c r="D410" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E410" t="n">
         <v>2012</v>
@@ -10111,7 +10108,7 @@
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B411" t="s">
         <v>325</v>
@@ -10120,7 +10117,7 @@
         <v>6</v>
       </c>
       <c r="D411" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E411" t="n">
         <v>2012</v>
@@ -10131,7 +10128,7 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B412" t="s">
         <v>325</v>
@@ -10140,7 +10137,7 @@
         <v>6</v>
       </c>
       <c r="D412" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E412" t="n">
         <v>2012</v>
@@ -10151,7 +10148,7 @@
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B413" t="s">
         <v>325</v>
@@ -10160,7 +10157,7 @@
         <v>6</v>
       </c>
       <c r="D413" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E413" t="n">
         <v>2013</v>
@@ -10171,7 +10168,7 @@
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B414" t="s">
         <v>325</v>
@@ -10191,7 +10188,7 @@
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B415" t="s">
         <v>325</v>
@@ -10200,7 +10197,7 @@
         <v>6</v>
       </c>
       <c r="D415" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E415" t="n">
         <v>2012</v>
@@ -10211,7 +10208,7 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B416" t="s">
         <v>325</v>
@@ -10220,7 +10217,7 @@
         <v>6</v>
       </c>
       <c r="D416" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E416" t="n">
         <v>2012</v>
@@ -10231,7 +10228,7 @@
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B417" t="s">
         <v>325</v>
@@ -10240,7 +10237,7 @@
         <v>6</v>
       </c>
       <c r="D417" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E417" t="n">
         <v>2012</v>
@@ -10251,7 +10248,7 @@
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B418" t="s">
         <v>325</v>
@@ -10271,7 +10268,7 @@
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B419" t="s">
         <v>325</v>
@@ -10291,7 +10288,7 @@
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B420" t="s">
         <v>325</v>
@@ -10311,7 +10308,7 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B421" t="s">
         <v>325</v>
@@ -10331,7 +10328,7 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B422" t="s">
         <v>325</v>
@@ -10351,7 +10348,7 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B423" t="s">
         <v>325</v>
@@ -10371,7 +10368,7 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B424" t="s">
         <v>325</v>
@@ -10391,7 +10388,7 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B425" t="s">
         <v>325</v>
@@ -10411,7 +10408,7 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B426" t="s">
         <v>325</v>
@@ -10431,7 +10428,7 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B427" t="s">
         <v>325</v>
@@ -10451,7 +10448,7 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B428" t="s">
         <v>325</v>
@@ -10471,7 +10468,7 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B429" t="s">
         <v>325</v>
@@ -10480,7 +10477,7 @@
         <v>7</v>
       </c>
       <c r="D429" t="s">
-        <v>335</v>
+        <v>30</v>
       </c>
       <c r="E429" t="n">
         <v>2014</v>
@@ -10491,7 +10488,7 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B430" t="s">
         <v>325</v>
@@ -10500,7 +10497,7 @@
         <v>7</v>
       </c>
       <c r="D430" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E430" t="n">
         <v>2015</v>
@@ -10511,7 +10508,7 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B431" t="s">
         <v>325</v>
@@ -10520,7 +10517,7 @@
         <v>7</v>
       </c>
       <c r="D431" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E431" t="n">
         <v>2014</v>
@@ -10531,7 +10528,7 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B432" t="s">
         <v>325</v>
@@ -10540,7 +10537,7 @@
         <v>7</v>
       </c>
       <c r="D432" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E432" t="n">
         <v>2015</v>
@@ -10551,7 +10548,7 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B433" t="s">
         <v>325</v>
@@ -10560,7 +10557,7 @@
         <v>7</v>
       </c>
       <c r="D433" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E433" t="n">
         <v>2015</v>
@@ -10571,7 +10568,7 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B434" t="s">
         <v>325</v>
@@ -10580,7 +10577,7 @@
         <v>7</v>
       </c>
       <c r="D434" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E434" t="n">
         <v>2014</v>
@@ -10591,7 +10588,7 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B435" t="s">
         <v>325</v>
@@ -10600,7 +10597,7 @@
         <v>7</v>
       </c>
       <c r="D435" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E435" t="n">
         <v>2014</v>
@@ -10611,7 +10608,7 @@
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B436" t="s">
         <v>325</v>
@@ -10620,7 +10617,7 @@
         <v>7</v>
       </c>
       <c r="D436" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E436" t="n">
         <v>2015</v>
@@ -10631,7 +10628,7 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B437" t="s">
         <v>325</v>
@@ -10640,7 +10637,7 @@
         <v>7</v>
       </c>
       <c r="D437" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E437" t="n">
         <v>2015</v>
@@ -10651,7 +10648,7 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B438" t="s">
         <v>325</v>
@@ -10660,7 +10657,7 @@
         <v>7</v>
       </c>
       <c r="D438" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E438" t="n">
         <v>2014</v>
@@ -10671,7 +10668,7 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B439" t="s">
         <v>325</v>
@@ -10680,7 +10677,7 @@
         <v>7</v>
       </c>
       <c r="D439" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E439" t="n">
         <v>2014</v>
@@ -10691,7 +10688,7 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B440" t="s">
         <v>325</v>
@@ -10711,7 +10708,7 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B441" t="s">
         <v>325</v>
@@ -10731,7 +10728,7 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B442" t="s">
         <v>325</v>
@@ -10751,7 +10748,7 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B443" t="s">
         <v>325</v>
@@ -10771,7 +10768,7 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B444" t="s">
         <v>325</v>
@@ -10791,7 +10788,7 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B445" t="s">
         <v>325</v>
@@ -10811,7 +10808,7 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B446" t="s">
         <v>325</v>
@@ -10831,7 +10828,7 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B447" t="s">
         <v>325</v>
@@ -10851,7 +10848,7 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B448" t="s">
         <v>325</v>
@@ -10871,7 +10868,7 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B449" t="s">
         <v>325</v>
@@ -10880,7 +10877,7 @@
         <v>8</v>
       </c>
       <c r="D449" t="s">
-        <v>335</v>
+        <v>30</v>
       </c>
       <c r="E449" t="n">
         <v>2016</v>
@@ -10891,7 +10888,7 @@
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B450" t="s">
         <v>325</v>
@@ -10900,7 +10897,7 @@
         <v>8</v>
       </c>
       <c r="D450" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E450" t="n">
         <v>2017</v>
@@ -10911,7 +10908,7 @@
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B451" t="s">
         <v>325</v>
@@ -10920,7 +10917,7 @@
         <v>8</v>
       </c>
       <c r="D451" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E451" t="n">
         <v>2017</v>
@@ -10931,7 +10928,7 @@
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B452" t="s">
         <v>325</v>
@@ -10940,7 +10937,7 @@
         <v>8</v>
       </c>
       <c r="D452" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E452" t="n">
         <v>2016</v>
@@ -10951,7 +10948,7 @@
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B453" t="s">
         <v>325</v>
@@ -10960,7 +10957,7 @@
         <v>8</v>
       </c>
       <c r="D453" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E453" t="n">
         <v>2017</v>
@@ -10971,7 +10968,7 @@
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B454" t="s">
         <v>325</v>
@@ -10980,7 +10977,7 @@
         <v>8</v>
       </c>
       <c r="D454" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E454" t="n">
         <v>2017</v>
@@ -10991,7 +10988,7 @@
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B455" t="s">
         <v>325</v>
@@ -11000,7 +10997,7 @@
         <v>8</v>
       </c>
       <c r="D455" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E455" t="n">
         <v>2017</v>
@@ -11011,7 +11008,7 @@
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B456" t="s">
         <v>325</v>
@@ -11020,7 +11017,7 @@
         <v>8</v>
       </c>
       <c r="D456" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E456" t="n">
         <v>2016</v>
@@ -11031,7 +11028,7 @@
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B457" t="s">
         <v>325</v>
@@ -11040,7 +11037,7 @@
         <v>8</v>
       </c>
       <c r="D457" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E457" t="n">
         <v>2016</v>
@@ -11051,7 +11048,7 @@
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B458" t="s">
         <v>325</v>
@@ -11060,7 +11057,7 @@
         <v>8</v>
       </c>
       <c r="D458" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E458" t="n">
         <v>2016</v>
@@ -11071,7 +11068,7 @@
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B459" t="s">
         <v>325</v>
@@ -11080,7 +11077,7 @@
         <v>8</v>
       </c>
       <c r="D459" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E459" t="n">
         <v>2017</v>
@@ -11091,7 +11088,7 @@
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B460" t="s">
         <v>325</v>
@@ -11111,7 +11108,7 @@
     </row>
     <row r="461">
       <c r="A461" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B461" t="s">
         <v>325</v>
@@ -11120,7 +11117,7 @@
         <v>8</v>
       </c>
       <c r="D461" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E461" t="n">
         <v>2016</v>
@@ -11131,7 +11128,7 @@
     </row>
     <row r="462">
       <c r="A462" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B462" t="s">
         <v>325</v>
@@ -11140,7 +11137,7 @@
         <v>8</v>
       </c>
       <c r="D462" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E462" t="n">
         <v>2016</v>
